--- a/refs/docs.xlsx
+++ b/refs/docs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="behaviors" sheetId="3" r:id="rId1"/>
@@ -2713,9 +2713,6 @@
     <t>placeholder</t>
   </si>
   <si>
-    <t>[ 'scale', 'fade', 'fade up', 'fade down', 'fade left', 'fade right', 'horizontal flip', 'vertical flip', 'drop', 'fly left', 'fly right', 'fly up', 'fly down', 'swing left', 'swing right', 'swing up', 'swing down', 'browse', 'browse right', 'slide down', 'slide up', 'slide left', 'slide right', 'jiggle', 'flash', 'shake', 'pulse', 'tada', 'bounce' ]</t>
-  </si>
-  <si>
     <t>SUI</t>
   </si>
   <si>
@@ -3517,9 +3514,6 @@
     <t>positions</t>
   </si>
   <si>
-    <t>[ 'top left', 'top center', 'top right', 'right center', 'bottom right', 'bottom center', 'bottom left', 'left center']</t>
-  </si>
-  <si>
     <t>detachable</t>
   </si>
   <si>
@@ -6115,6 +6109,12 @@
   </si>
   <si>
     <t>closeNested</t>
+  </si>
+  <si>
+    <t>'scale' | 'fade' | 'fade up' | 'fade down' | 'fade left' | 'fade right' | 'horizontal flip' | 'vertical flip' | 'drop' | 'fly left' | 'fly right' | 'fly up' | 'fly down' | 'swing left' | 'swing right' | 'swing up' | 'swing down' | 'browse' | 'browse right' | 'slide down' | 'slide up' | 'slide left' | 'slide right' | 'jiggle' | 'flash' | 'shake' | 'pulse' | 'tada' | 'bounce'</t>
+  </si>
+  <si>
+    <t>'top left' | 'top center' | 'top right' | 'right center' | 'bottom right' | 'bottom center' | 'bottom left' | 'left center'</t>
   </si>
 </sst>
 </file>
@@ -6551,7 +6551,7 @@
         <v>561</v>
       </c>
       <c r="C1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6988,7 +6988,7 @@
         <v>436</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>93</v>
@@ -7494,7 +7494,7 @@
         <v>440</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>168</v>
@@ -7505,7 +7505,7 @@
         <v>440</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>169</v>
@@ -9533,8 +9533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9556,24 +9556,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B2" t="s">
         <v>490</v>
       </c>
-      <c r="C2" t="s">
-        <v>683</v>
+      <c r="C2" s="9" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B3" t="s">
-        <v>812</v>
-      </c>
-      <c r="C3" t="s">
-        <v>813</v>
+        <v>811</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1179</v>
       </c>
     </row>
   </sheetData>
@@ -9585,7 +9585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -9611,10 +9611,10 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9932,7 +9932,7 @@
         <v>513</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9950,7 +9950,7 @@
         <v>515</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10022,7 +10022,7 @@
         <v>520</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
@@ -10240,7 +10240,7 @@
         <v>440</v>
       </c>
       <c r="B41" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>521</v>
@@ -10257,7 +10257,7 @@
         <v>440</v>
       </c>
       <c r="B42" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>664</v>
@@ -10274,7 +10274,7 @@
         <v>440</v>
       </c>
       <c r="B43" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>666</v>
@@ -10291,7 +10291,7 @@
         <v>440</v>
       </c>
       <c r="B44" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>668</v>
@@ -10308,7 +10308,7 @@
         <v>440</v>
       </c>
       <c r="B45" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>495</v>
@@ -10320,7 +10320,7 @@
         <v>670</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10328,7 +10328,7 @@
         <v>440</v>
       </c>
       <c r="B46" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>671</v>
@@ -10345,7 +10345,7 @@
         <v>440</v>
       </c>
       <c r="B47" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>673</v>
@@ -10357,7 +10357,7 @@
         <v>675</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10365,7 +10365,7 @@
         <v>440</v>
       </c>
       <c r="B48" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>676</v>
@@ -10382,7 +10382,7 @@
         <v>440</v>
       </c>
       <c r="B49" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>678</v>
@@ -10399,7 +10399,7 @@
         <v>440</v>
       </c>
       <c r="B50" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>680</v>
@@ -10416,7 +10416,7 @@
         <v>440</v>
       </c>
       <c r="B51" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>682</v>
@@ -10425,10 +10425,10 @@
         <v>522</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10436,16 +10436,16 @@
         <v>440</v>
       </c>
       <c r="B52" t="s">
+        <v>687</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="D52" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10453,13 +10453,13 @@
         <v>440</v>
       </c>
       <c r="B53" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>691</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10467,13 +10467,13 @@
         <v>440</v>
       </c>
       <c r="B54" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>693</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10481,16 +10481,16 @@
         <v>440</v>
       </c>
       <c r="B55" t="s">
+        <v>694</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="D55" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10498,16 +10498,16 @@
         <v>440</v>
       </c>
       <c r="B56" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D56" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10515,16 +10515,16 @@
         <v>440</v>
       </c>
       <c r="B57" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D57" s="2">
         <v>1.0713999999999999</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10532,13 +10532,13 @@
         <v>440</v>
       </c>
       <c r="B58" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>702</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10546,19 +10546,19 @@
         <v>440</v>
       </c>
       <c r="B59" t="s">
+        <v>703</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>707</v>
-      </c>
       <c r="F59" s="9" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10566,16 +10566,16 @@
         <v>440</v>
       </c>
       <c r="B60" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D60" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10583,16 +10583,16 @@
         <v>440</v>
       </c>
       <c r="B61" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>595</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10600,16 +10600,16 @@
         <v>440</v>
       </c>
       <c r="B62" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D62" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10617,16 +10617,16 @@
         <v>440</v>
       </c>
       <c r="B63" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D63" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10634,16 +10634,16 @@
         <v>440</v>
       </c>
       <c r="B64" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D64" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10651,16 +10651,16 @@
         <v>440</v>
       </c>
       <c r="B65" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D65" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10668,16 +10668,16 @@
         <v>440</v>
       </c>
       <c r="B66" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D66" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10685,16 +10685,16 @@
         <v>440</v>
       </c>
       <c r="B67" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>493</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>722</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10702,7 +10702,7 @@
         <v>440</v>
       </c>
       <c r="B68" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>613</v>
@@ -10711,7 +10711,7 @@
         <v>200</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10719,13 +10719,13 @@
         <v>440</v>
       </c>
       <c r="B69" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>725</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10733,13 +10733,13 @@
         <v>440</v>
       </c>
       <c r="B70" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10747,16 +10747,16 @@
         <v>446</v>
       </c>
       <c r="B71" t="s">
+        <v>747</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>749</v>
       </c>
       <c r="D71" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10764,16 +10764,16 @@
         <v>446</v>
       </c>
       <c r="B72" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D72" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10781,7 +10781,7 @@
         <v>446</v>
       </c>
       <c r="B73" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>498</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10798,16 +10798,16 @@
         <v>446</v>
       </c>
       <c r="B74" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D74" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10815,16 +10815,16 @@
         <v>446</v>
       </c>
       <c r="B75" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D75" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10832,16 +10832,16 @@
         <v>446</v>
       </c>
       <c r="B76" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>522</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10849,16 +10849,16 @@
         <v>446</v>
       </c>
       <c r="B77" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>766</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10866,16 +10866,16 @@
         <v>446</v>
       </c>
       <c r="B78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D78" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10883,129 +10883,129 @@
         <v>446</v>
       </c>
       <c r="B79" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D79" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>781</v>
+      </c>
+      <c r="B80" t="s">
+        <v>794</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="B80" t="s">
-        <v>795</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>783</v>
       </c>
       <c r="D80" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B81" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>786</v>
-      </c>
       <c r="F81" s="9" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B82" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D82" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B83" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D83" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B84" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D84" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B85" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>493</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>792</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B86" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>613</v>
@@ -11014,15 +11014,15 @@
         <v>150</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B87" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>518</v>
@@ -11030,13 +11030,13 @@
     </row>
     <row r="88" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B88" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11044,16 +11044,16 @@
         <v>448</v>
       </c>
       <c r="B89" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D89" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11061,16 +11061,16 @@
         <v>448</v>
       </c>
       <c r="B90" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D90" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11078,16 +11078,16 @@
         <v>448</v>
       </c>
       <c r="B91" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D91" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11095,16 +11095,16 @@
         <v>448</v>
       </c>
       <c r="B92" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D92" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11112,16 +11112,16 @@
         <v>448</v>
       </c>
       <c r="B93" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D93" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11129,16 +11129,16 @@
         <v>448</v>
       </c>
       <c r="B94" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D94" s="2">
         <v>0</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11146,16 +11146,16 @@
         <v>448</v>
       </c>
       <c r="B95" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>595</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11163,7 +11163,7 @@
         <v>448</v>
       </c>
       <c r="B96" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>649</v>
@@ -11172,7 +11172,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11180,13 +11180,13 @@
         <v>448</v>
       </c>
       <c r="B97" t="s">
+        <v>826</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>828</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11194,16 +11194,16 @@
         <v>448</v>
       </c>
       <c r="B98" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>493</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11211,7 +11211,7 @@
         <v>448</v>
       </c>
       <c r="B99" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>613</v>
@@ -11220,7 +11220,7 @@
         <v>400</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11228,16 +11228,16 @@
         <v>448</v>
       </c>
       <c r="B100" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D100" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11245,7 +11245,7 @@
         <v>451</v>
       </c>
       <c r="B101" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>451</v>
@@ -11254,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11262,7 +11262,7 @@
         <v>451</v>
       </c>
       <c r="B102" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>604</v>
@@ -11271,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11279,16 +11279,16 @@
         <v>451</v>
       </c>
       <c r="B103" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D103" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11296,16 +11296,16 @@
         <v>451</v>
       </c>
       <c r="B104" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D104" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11313,16 +11313,16 @@
         <v>451</v>
       </c>
       <c r="B105" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11330,16 +11330,16 @@
         <v>451</v>
       </c>
       <c r="B106" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>595</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11347,16 +11347,16 @@
         <v>451</v>
       </c>
       <c r="B107" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11364,16 +11364,16 @@
         <v>451</v>
       </c>
       <c r="B108" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D108" s="2">
         <v>2</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11381,16 +11381,16 @@
         <v>451</v>
       </c>
       <c r="B109" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>862</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11398,16 +11398,16 @@
         <v>451</v>
       </c>
       <c r="B110" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D110" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11415,16 +11415,16 @@
         <v>451</v>
       </c>
       <c r="B111" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D111" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11432,16 +11432,16 @@
         <v>451</v>
       </c>
       <c r="B112" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>868</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11449,16 +11449,16 @@
         <v>451</v>
       </c>
       <c r="B113" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D113" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11466,16 +11466,16 @@
         <v>451</v>
       </c>
       <c r="B114" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11483,14 +11483,14 @@
         <v>451</v>
       </c>
       <c r="B115" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11498,13 +11498,13 @@
         <v>451</v>
       </c>
       <c r="B116" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>493</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>656</v>
@@ -11515,7 +11515,7 @@
         <v>451</v>
       </c>
       <c r="B117" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>613</v>
@@ -11524,7 +11524,7 @@
         <v>200</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11532,16 +11532,16 @@
         <v>451</v>
       </c>
       <c r="B118" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D118" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11549,16 +11549,16 @@
         <v>451</v>
       </c>
       <c r="B119" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D119" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11566,7 +11566,7 @@
         <v>451</v>
       </c>
       <c r="B120" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>649</v>
@@ -11575,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11583,16 +11583,16 @@
         <v>451</v>
       </c>
       <c r="B121" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D121" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11600,16 +11600,16 @@
         <v>451</v>
       </c>
       <c r="B122" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>522</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11617,12 +11617,12 @@
         <v>451</v>
       </c>
       <c r="B123" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C123" s="12"/>
       <c r="D123" s="13"/>
       <c r="E123" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11630,16 +11630,16 @@
         <v>451</v>
       </c>
       <c r="B124" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D124" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11647,16 +11647,16 @@
         <v>451</v>
       </c>
       <c r="B125" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D125" s="2">
         <v>0</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11664,16 +11664,16 @@
         <v>451</v>
       </c>
       <c r="B126" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D126" s="2">
         <v>0</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11681,16 +11681,16 @@
         <v>451</v>
       </c>
       <c r="B127" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D127" s="2">
         <v>10</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11698,13 +11698,13 @@
         <v>451</v>
       </c>
       <c r="B128" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>645</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11712,13 +11712,13 @@
         <v>451</v>
       </c>
       <c r="B129" t="s">
+        <v>907</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>911</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11726,13 +11726,13 @@
         <v>451</v>
       </c>
       <c r="B130" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11740,16 +11740,16 @@
         <v>451</v>
       </c>
       <c r="B131" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F131" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11757,16 +11757,16 @@
         <v>454</v>
       </c>
       <c r="B132" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D132" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11774,16 +11774,16 @@
         <v>454</v>
       </c>
       <c r="B133" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D133" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11791,16 +11791,16 @@
         <v>454</v>
       </c>
       <c r="B134" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D134" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11808,19 +11808,19 @@
         <v>454</v>
       </c>
       <c r="B135" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11828,13 +11828,13 @@
         <v>454</v>
       </c>
       <c r="B136" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11842,16 +11842,16 @@
         <v>454</v>
       </c>
       <c r="B137" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D137" s="2">
         <v>1</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11859,16 +11859,16 @@
         <v>454</v>
       </c>
       <c r="B138" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D138" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11876,7 +11876,7 @@
         <v>454</v>
       </c>
       <c r="B139" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>519</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11893,16 +11893,16 @@
         <v>467</v>
       </c>
       <c r="B140" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D140" s="2">
         <v>0</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11910,7 +11910,7 @@
         <v>467</v>
       </c>
       <c r="B141" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>619</v>
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11927,16 +11927,16 @@
         <v>467</v>
       </c>
       <c r="B142" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>522</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11944,16 +11944,16 @@
         <v>467</v>
       </c>
       <c r="B143" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D143" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11964,10 +11964,10 @@
         <v>520</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11984,7 +11984,7 @@
         <v>1</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11998,7 +11998,7 @@
         <v>493</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>656</v>
@@ -12018,7 +12018,7 @@
         <v>300</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12029,13 +12029,13 @@
         <v>520</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D148" s="2">
         <v>7</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12052,7 +12052,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12063,13 +12063,13 @@
         <v>520</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D150" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12080,13 +12080,13 @@
         <v>520</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D151" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12097,13 +12097,13 @@
         <v>520</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D152" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12114,13 +12114,13 @@
         <v>520</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D153" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12131,10 +12131,10 @@
         <v>520</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12145,10 +12145,10 @@
         <v>520</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12159,13 +12159,13 @@
         <v>520</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D156" s="2">
         <v>0</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12176,13 +12176,13 @@
         <v>520</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D157" s="2">
         <v>100</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12196,10 +12196,10 @@
         <v>615</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12207,16 +12207,16 @@
         <v>479</v>
       </c>
       <c r="B159" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>613</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12224,16 +12224,16 @@
         <v>479</v>
       </c>
       <c r="B160" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>993</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12241,16 +12241,16 @@
         <v>479</v>
       </c>
       <c r="B161" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C161" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12264,10 +12264,10 @@
         <v>595</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12284,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12301,7 +12301,7 @@
         <v>1</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12312,13 +12312,13 @@
         <v>520</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D165" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12329,13 +12329,13 @@
         <v>520</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D166" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12346,13 +12346,13 @@
         <v>520</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D167" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12363,13 +12363,13 @@
         <v>520</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D168" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12377,7 +12377,7 @@
         <v>482</v>
       </c>
       <c r="B169" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>493</v>
@@ -12386,7 +12386,7 @@
         <v>522</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12394,16 +12394,16 @@
         <v>482</v>
       </c>
       <c r="B170" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>1014</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>1016</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>522</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12411,13 +12411,13 @@
         <v>482</v>
       </c>
       <c r="B171" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12425,16 +12425,16 @@
         <v>482</v>
       </c>
       <c r="B172" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D172" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12442,7 +12442,7 @@
         <v>482</v>
       </c>
       <c r="B173" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>613</v>
@@ -12451,7 +12451,7 @@
         <v>500</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12459,75 +12459,75 @@
         <v>482</v>
       </c>
       <c r="B174" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>615</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B175" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D175" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B176" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D176" s="2">
         <v>5</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B177" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D177" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B178" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>595</v>
@@ -12536,58 +12536,58 @@
         <v>0</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B179" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B180" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D180" s="2">
         <v>0</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B181" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D181" s="2">
         <v>0</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12595,7 +12595,7 @@
         <v>483</v>
       </c>
       <c r="B182" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>522</v>
@@ -12604,7 +12604,7 @@
         <v>0</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12612,16 +12612,16 @@
         <v>483</v>
       </c>
       <c r="B183" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D183" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12629,16 +12629,16 @@
         <v>483</v>
       </c>
       <c r="B184" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D184" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12646,16 +12646,16 @@
         <v>483</v>
       </c>
       <c r="B185" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>1059</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12663,16 +12663,16 @@
         <v>483</v>
       </c>
       <c r="B186" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D186" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12680,16 +12680,16 @@
         <v>483</v>
       </c>
       <c r="B187" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C187" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>1064</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12697,16 +12697,16 @@
         <v>483</v>
       </c>
       <c r="B188" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>502</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12714,7 +12714,7 @@
         <v>483</v>
       </c>
       <c r="B189" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>524</v>
@@ -12723,7 +12723,7 @@
         <v>1</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12731,16 +12731,16 @@
         <v>483</v>
       </c>
       <c r="B190" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D190" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12748,16 +12748,16 @@
         <v>483</v>
       </c>
       <c r="B191" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C191" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E191" s="6" t="s">
         <v>1071</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E191" s="6" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12765,16 +12765,16 @@
         <v>483</v>
       </c>
       <c r="B192" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D192" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12782,7 +12782,7 @@
         <v>483</v>
       </c>
       <c r="B193" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>595</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12799,16 +12799,16 @@
         <v>483</v>
       </c>
       <c r="B194" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D194" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12816,16 +12816,16 @@
         <v>483</v>
       </c>
       <c r="B195" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D195" s="2">
         <v>25</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12833,16 +12833,16 @@
         <v>493</v>
       </c>
       <c r="B196" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12850,16 +12850,16 @@
         <v>493</v>
       </c>
       <c r="B197" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>1092</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>1094</v>
       </c>
       <c r="D197" s="2">
         <v>0</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12867,16 +12867,16 @@
         <v>493</v>
       </c>
       <c r="B198" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>522</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12884,16 +12884,16 @@
         <v>493</v>
       </c>
       <c r="B199" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D199" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12901,16 +12901,16 @@
         <v>493</v>
       </c>
       <c r="B200" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>613</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12918,16 +12918,16 @@
         <v>493</v>
       </c>
       <c r="B201" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D201" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12935,16 +12935,16 @@
         <v>493</v>
       </c>
       <c r="B202" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D202" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12952,16 +12952,16 @@
         <v>493</v>
       </c>
       <c r="B203" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D203" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12969,16 +12969,16 @@
         <v>494</v>
       </c>
       <c r="B204" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D204" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12986,16 +12986,16 @@
         <v>494</v>
       </c>
       <c r="B205" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>1116</v>
       </c>
       <c r="D205" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13003,16 +13003,16 @@
         <v>494</v>
       </c>
       <c r="B206" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D206" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13020,16 +13020,16 @@
         <v>494</v>
       </c>
       <c r="B207" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D207" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13037,16 +13037,16 @@
         <v>494</v>
       </c>
       <c r="B208" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>595</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13054,16 +13054,16 @@
         <v>494</v>
       </c>
       <c r="B209" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D209" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13071,16 +13071,16 @@
         <v>494</v>
       </c>
       <c r="B210" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D210" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13088,16 +13088,16 @@
         <v>494</v>
       </c>
       <c r="B211" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D211" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13105,16 +13105,16 @@
         <v>494</v>
       </c>
       <c r="B212" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D212" s="2">
         <v>1</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13122,16 +13122,16 @@
         <v>494</v>
       </c>
       <c r="B213" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D213" s="2">
         <v>0</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13139,16 +13139,16 @@
         <v>494</v>
       </c>
       <c r="B214" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D214" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13156,7 +13156,7 @@
         <v>494</v>
       </c>
       <c r="B215" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>532</v>
@@ -13165,7 +13165,7 @@
         <v>0</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13173,16 +13173,16 @@
         <v>494</v>
       </c>
       <c r="B216" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D216" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13190,7 +13190,7 @@
         <v>494</v>
       </c>
       <c r="B217" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>493</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13207,7 +13207,7 @@
         <v>494</v>
       </c>
       <c r="B218" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>613</v>
@@ -13216,7 +13216,7 @@
         <v>1000</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="406" ht="71.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13271,7 +13271,7 @@
         <v>595</v>
       </c>
       <c r="D1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13681,13 +13681,13 @@
         <v>440</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13695,13 +13695,13 @@
         <v>440</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13709,13 +13709,13 @@
         <v>440</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13723,13 +13723,13 @@
         <v>440</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13737,13 +13737,13 @@
         <v>440</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13751,13 +13751,13 @@
         <v>440</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13765,13 +13765,13 @@
         <v>440</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13782,10 +13782,10 @@
         <v>657</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13796,10 +13796,10 @@
         <v>660</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13807,13 +13807,13 @@
         <v>446</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13821,13 +13821,13 @@
         <v>446</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13835,13 +13835,13 @@
         <v>446</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13849,69 +13849,69 @@
         <v>446</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13922,10 +13922,10 @@
         <v>657</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13933,13 +13933,13 @@
         <v>448</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13947,13 +13947,13 @@
         <v>448</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13961,13 +13961,13 @@
         <v>448</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13975,13 +13975,13 @@
         <v>448</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13989,13 +13989,13 @@
         <v>448</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14003,13 +14003,13 @@
         <v>451</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14017,13 +14017,13 @@
         <v>451</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14031,13 +14031,13 @@
         <v>451</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14045,13 +14045,13 @@
         <v>451</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14059,13 +14059,13 @@
         <v>451</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14073,13 +14073,13 @@
         <v>451</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14087,13 +14087,13 @@
         <v>451</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14101,13 +14101,13 @@
         <v>454</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14115,13 +14115,13 @@
         <v>454</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14129,13 +14129,13 @@
         <v>454</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14143,13 +14143,13 @@
         <v>454</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14157,13 +14157,13 @@
         <v>454</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14171,13 +14171,13 @@
         <v>467</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>952</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14185,13 +14185,13 @@
         <v>468</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14199,13 +14199,13 @@
         <v>468</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14213,13 +14213,13 @@
         <v>468</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14227,13 +14227,13 @@
         <v>468</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14241,13 +14241,13 @@
         <v>468</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>985</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14255,13 +14255,13 @@
         <v>468</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14269,13 +14269,13 @@
         <v>479</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>998</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14286,10 +14286,10 @@
         <v>590</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14297,13 +14297,13 @@
         <v>482</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14314,10 +14314,10 @@
         <v>657</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>1025</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14328,10 +14328,10 @@
         <v>590</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14342,10 +14342,10 @@
         <v>660</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14353,97 +14353,97 @@
         <v>482</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>1041</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14451,13 +14451,13 @@
         <v>483</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14465,13 +14465,13 @@
         <v>483</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14479,13 +14479,13 @@
         <v>483</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14493,13 +14493,13 @@
         <v>483</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14510,10 +14510,10 @@
         <v>657</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14524,10 +14524,10 @@
         <v>660</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>1107</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14535,13 +14535,13 @@
         <v>493</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14549,13 +14549,13 @@
         <v>493</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14563,13 +14563,13 @@
         <v>494</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14577,13 +14577,13 @@
         <v>494</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14591,13 +14591,13 @@
         <v>494</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14605,13 +14605,13 @@
         <v>494</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14619,13 +14619,13 @@
         <v>494</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14633,13 +14633,13 @@
         <v>494</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14647,13 +14647,13 @@
         <v>494</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14661,13 +14661,13 @@
         <v>494</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14675,13 +14675,13 @@
         <v>494</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14689,13 +14689,13 @@
         <v>494</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14703,13 +14703,13 @@
         <v>494</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14717,13 +14717,13 @@
         <v>494</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>1160</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14731,13 +14731,13 @@
         <v>494</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14745,13 +14745,13 @@
         <v>494</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14759,13 +14759,13 @@
         <v>494</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14773,13 +14773,13 @@
         <v>494</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
   </sheetData>
@@ -14809,7 +14809,7 @@
         <v>561</v>
       </c>
       <c r="B1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14918,10 +14918,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1" t="s">
         <v>760</v>
-      </c>
-      <c r="B1" t="s">
-        <v>761</v>
       </c>
       <c r="C1" t="s">
         <v>519</v>
@@ -14935,7 +14935,7 @@
         <v>519</v>
       </c>
       <c r="C2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14946,18 +14946,18 @@
         <v>561</v>
       </c>
       <c r="C3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B4" t="s">
         <v>561</v>
       </c>
       <c r="C4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -14968,7 +14968,7 @@
         <v>561</v>
       </c>
       <c r="C5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -14979,73 +14979,73 @@
         <v>561</v>
       </c>
       <c r="C6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B7" t="s">
         <v>561</v>
       </c>
       <c r="C7" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B8" t="s">
         <v>561</v>
       </c>
       <c r="C8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B9" t="s">
         <v>561</v>
       </c>
       <c r="C9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B10" t="s">
         <v>561</v>
       </c>
       <c r="C10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B11" t="s">
         <v>561</v>
       </c>
       <c r="C11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B12" t="s">
         <v>561</v>
       </c>
       <c r="C12" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -15056,7 +15056,7 @@
         <v>561</v>
       </c>
       <c r="C13" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
